--- a/plano de aulas.xlsx
+++ b/plano de aulas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasmi\INDT\Cursos\TinyML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasmi\INDT\Cursos\EdgeAI_T01_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A474B1FE-E0A8-471E-BF2F-AEE571BF4AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E17BBA-A149-48FA-A329-8F559276355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1690" yWindow="400" windowWidth="33240" windowHeight="19280" xr2:uid="{90109EDB-B84A-4A65-982D-58582F67214B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{90109EDB-B84A-4A65-982D-58582F67214B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/plano de aulas.xlsx
+++ b/plano de aulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasmi\INDT\Cursos\EdgeAI_T01_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E17BBA-A149-48FA-A329-8F559276355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4B896F-99E4-420D-AA58-D9340B4BFF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{90109EDB-B84A-4A65-982D-58582F67214B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Módulo</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Coleta de dados em TinyML</t>
   </si>
   <si>
-    <t>visualização dos dados, linearização, normalização e distribuição no range numérico, tratamento de outliers...</t>
-  </si>
-  <si>
-    <t>analisar diversos modelos treinados a partir de dados obtidos e comparar resultados para decidir qual modelo será utilizado</t>
-  </si>
-  <si>
     <t>Preparação de Modelos para TinyML</t>
   </si>
   <si>
@@ -85,58 +79,67 @@
     <t>definição de janelas, anomalias vs ruídos, tratamento de ruídos (média) em janela, falso positivo vs falha real (definir comportamento consistente)</t>
   </si>
   <si>
-    <t>tensorflow light, quantização e conversão para c++</t>
-  </si>
-  <si>
     <t xml:space="preserve">Redes Neurais Profundas (redes vanilla) </t>
   </si>
   <si>
     <t xml:space="preserve">Redes Neurais Profundas (redes convolutivas) </t>
   </si>
   <si>
-    <t>Análise comparativa de modelos obtidos</t>
-  </si>
-  <si>
     <t>Análise comparativa entre modelos</t>
   </si>
   <si>
     <t>Atividade 01</t>
   </si>
   <si>
-    <t>Atividade 02</t>
-  </si>
-  <si>
-    <t>Atividade 03</t>
-  </si>
-  <si>
     <t xml:space="preserve">apresentar workflow TinyML, tipos de sensores, ajustes, estabilidade ambiental (elétrica, térmica, etc...) </t>
   </si>
   <si>
-    <t>Treinamento e otimização de modelos DL</t>
-  </si>
-  <si>
-    <t>Treinamento e otimização de modelos Clássicos</t>
-  </si>
-  <si>
-    <t>Prepação do Modelo para aplicação em microcontroladores</t>
-  </si>
-  <si>
     <t>Aplicações TinyML</t>
   </si>
   <si>
-    <t>Atividade final</t>
-  </si>
-  <si>
-    <t>Limitações técnicas e ambientais em TinyML</t>
-  </si>
-  <si>
-    <t>Desenvolvimento de aplicação</t>
-  </si>
-  <si>
     <t>aplicações e limitações</t>
   </si>
   <si>
     <t>arquitetura, número de parâmetros (memória), treinamento, cálculo de erro, ajuste de pesos e biases, retropropagação,  aplicações e limitações, exemplos (Use a página "A Neural Network PlayGround")</t>
+  </si>
+  <si>
+    <t>coletar dados, classificar e comparar modelos usando orange</t>
+  </si>
+  <si>
+    <t>visualização dos dados, quantização, normalização e distribuição no range numérico, tratamento de outliers...</t>
+  </si>
+  <si>
+    <t>tensorflow light e microml para conversão para c++</t>
+  </si>
+  <si>
+    <t>implementação na ESP-32 ou no Arduino</t>
+  </si>
+  <si>
+    <t>Coleta e Análise de dados usando ESP ou Arduino</t>
+  </si>
+  <si>
+    <t>Treinamento e otimização de modelos DL e Clássicos</t>
+  </si>
+  <si>
+    <t>TinyML Aplicado 1</t>
+  </si>
+  <si>
+    <t>Atividade</t>
+  </si>
+  <si>
+    <t>TinyML Aplicado 2</t>
+  </si>
+  <si>
+    <t>redes convolutivas</t>
+  </si>
+  <si>
+    <t>som</t>
+  </si>
+  <si>
+    <t>imagem</t>
+  </si>
+  <si>
+    <t>TinyML Aplicado 3</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,10 +561,10 @@
         <v>44679</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -575,10 +578,10 @@
         <v>44680</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -606,7 +609,7 @@
         <v>44686</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -620,7 +623,7 @@
         <v>44687</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -637,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -654,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -668,10 +671,10 @@
         <v>44694</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -685,12 +688,15 @@
         <v>44698</v>
       </c>
       <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -699,15 +705,15 @@
         <v>44700</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -716,12 +722,15 @@
         <v>44701</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -730,15 +739,15 @@
         <v>44712</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -747,12 +756,12 @@
         <v>44714</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -761,12 +770,12 @@
         <v>44715</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -777,10 +786,13 @@
       <c r="D17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -789,12 +801,12 @@
         <v>44721</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -803,12 +815,12 @@
         <v>44722</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -817,12 +829,15 @@
         <v>44726</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -831,7 +846,7 @@
         <v>44728</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/plano de aulas.xlsx
+++ b/plano de aulas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasmi\INDT\Cursos\EdgeAI_T01_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4B896F-99E4-420D-AA58-D9340B4BFF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2ECAF5-A8D8-4795-B64A-66C097863FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{90109EDB-B84A-4A65-982D-58582F67214B}"/>
   </bookViews>
@@ -130,16 +130,16 @@
     <t>TinyML Aplicado 2</t>
   </si>
   <si>
-    <t>redes convolutivas</t>
-  </si>
-  <si>
-    <t>som</t>
-  </si>
-  <si>
-    <t>imagem</t>
-  </si>
-  <si>
     <t>TinyML Aplicado 3</t>
+  </si>
+  <si>
+    <t>redes convolutivas - identificador de direção</t>
+  </si>
+  <si>
+    <t>redes convolutivas - identificador de gestos</t>
+  </si>
+  <si>
+    <t>regressor com múltiplas features</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -742,7 +742,7 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -787,7 +787,7 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -829,10 +829,10 @@
         <v>44726</v>
       </c>
       <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
         <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -846,7 +846,7 @@
         <v>44728</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
